--- a/src/main/resources/jxls_templates/warehousebeginbarcode_import.xlsx
+++ b/src/main/resources/jxls_templates/warehousebeginbarcode_import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>期初条码导入</t>
   </si>
@@ -42,6 +42,9 @@
   <si>
     <t>生产日期</t>
   </si>
+  <si>
+    <t>打印模板标签</t>
+  </si>
 </sst>
 </file>
 
@@ -425,6 +428,15 @@
   <borders count="11">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -440,19 +452,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -706,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,10 +718,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1047,13 +1049,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="18.3333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
@@ -1063,51 +1065,61 @@
     <col min="6" max="6" width="19" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.25" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88333333333333" style="2"/>
+    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:3">
+    <row r="1" ht="25.5" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/jxls_templates/warehousebeginbarcode_import.xlsx
+++ b/src/main/resources/jxls_templates/warehousebeginbarcode_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="21600" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>期初条码导入</t>
   </si>
@@ -25,25 +25,34 @@
     <t>库区名称</t>
   </si>
   <si>
-    <t>存货编码</t>
-  </si>
-  <si>
-    <t>供应商名称</t>
-  </si>
-  <si>
-    <t>生成条码库存数量</t>
-  </si>
-  <si>
-    <t>条码号</t>
-  </si>
-  <si>
-    <t>批次号</t>
-  </si>
-  <si>
-    <t>生产日期</t>
-  </si>
-  <si>
-    <t>打印模板标签</t>
+    <t>*仓库编码</t>
+  </si>
+  <si>
+    <t>库区编码</t>
+  </si>
+  <si>
+    <t>*存货编码</t>
+  </si>
+  <si>
+    <t>供应商编码</t>
+  </si>
+  <si>
+    <t>*生成条码库存数量</t>
+  </si>
+  <si>
+    <t>*条码号</t>
+  </si>
+  <si>
+    <t>*批次号</t>
+  </si>
+  <si>
+    <t>*批次日期</t>
+  </si>
+  <si>
+    <t>*生产日期</t>
+  </si>
+  <si>
+    <t>*打印模板标签</t>
   </si>
 </sst>
 </file>
@@ -1049,27 +1058,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="18.3333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.3362831858407" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7522123893805" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6283185840708" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.3716814159292" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.8761061946903" style="2" customWidth="1"/>
     <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88333333333333" style="2"/>
+    <col min="7" max="7" width="19.8761061946903" style="2" customWidth="1"/>
+    <col min="8" max="9" width="21.2477876106195" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.3716814159292" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.4778761061947" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.929203539823" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88495575221239" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:9">
+    <row r="1" ht="25.1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1081,18 +1092,19 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1109,6 +1121,15 @@
       </c>
       <c r="I2" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1119,7 +1140,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/jxls_templates/warehousebeginbarcode_import.xlsx
+++ b/src/main/resources/jxls_templates/warehousebeginbarcode_import.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>期初条码导入</t>
-  </si>
-  <si>
-    <t>仓库名称</t>
-  </si>
-  <si>
-    <t>库区名称</t>
   </si>
   <si>
     <t>*仓库编码</t>
@@ -434,18 +428,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -575,7 +560,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,7 +590,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,28 +608,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,10 +638,10 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,19 +709,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,47 +1037,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="18.3362831858407" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6283185840708" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.3716814159292" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6283185840708" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.3716814159292" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8761061946903" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.8761061946903" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.8761061946903" style="2" customWidth="1"/>
-    <col min="8" max="9" width="21.2477876106195" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.3716814159292" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.4778761061947" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.929203539823" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.88495575221239" style="2"/>
+    <col min="6" max="7" width="21.2477876106195" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.3716814159292" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.4778761061947" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.929203539823" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88495575221239" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1107,36 +1084,24 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
